--- a/data/cline_assays/2023-06-05-Clines/2023-06-05-plate-maps.xlsx
+++ b/data/cline_assays/2023-06-05-Clines/2023-06-05-plate-maps.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tacaro/Documents/GitHub/om23/data/cline_assays/2023-06-05-Clines/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tacaro/Documents/GitHub/Oman-2023/data/cline_assays/2023-06-05-Clines/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00AA6EE-82CC-E941-BE13-EE82CD5F3F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D59084-9C40-8A45-A2EA-E66A4D6E8F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="2" xr2:uid="{760B9E5E-B99B-B145-B0C9-0528EB1F3399}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="15120" windowHeight="18880" xr2:uid="{760B9E5E-B99B-B145-B0C9-0528EB1F3399}"/>
   </bookViews>
   <sheets>
     <sheet name="PLATE A" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="72">
   <si>
     <t>PLATE A</t>
   </si>
@@ -218,33 +218,6 @@
       </rPr>
       <t>C</t>
     </r>
-  </si>
-  <si>
-    <t>BA1B-20-CTL</t>
-  </si>
-  <si>
-    <t>BA1B-150-CTL</t>
-  </si>
-  <si>
-    <t>BA1B-250-CTL</t>
-  </si>
-  <si>
-    <t>BA4A-20-CTL</t>
-  </si>
-  <si>
-    <t>BA4A-150-CTL</t>
-  </si>
-  <si>
-    <t>BA4A-270-CTL</t>
-  </si>
-  <si>
-    <t>BA3A-20-CTL</t>
-  </si>
-  <si>
-    <t>BA3A-150-CTL</t>
-  </si>
-  <si>
-    <t>BA3A-270-CTL</t>
   </si>
   <si>
     <t>01</t>
@@ -791,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8FAD0E6-FCB8-0543-A8BA-10CDFB09C489}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -802,40 +775,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>63</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="31" x14ac:dyDescent="0.35">
@@ -1186,40 +1159,40 @@
         <v>41</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>63</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="34" x14ac:dyDescent="0.35">
@@ -1559,8 +1532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F64FB8F-410B-7E4B-9F7B-70E339D8E79B}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1570,163 +1543,163 @@
         <v>51</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="34" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:13" ht="31" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="34" x14ac:dyDescent="0.35">
+      <c r="B2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="31" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="34" x14ac:dyDescent="0.35">
+      <c r="B3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="31" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>60</v>
+      <c r="B4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="31" x14ac:dyDescent="0.35">
@@ -1775,13 +1748,13 @@
         <v>21</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>50</v>
@@ -1857,40 +1830,40 @@
         <v>31</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="34" x14ac:dyDescent="0.35">
@@ -1898,31 +1871,31 @@
         <v>36</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="K9" s="8" t="s">
         <v>40</v>
